--- a/static/generated_files/price_list_with_selling_prices.xlsx
+++ b/static/generated_files/price_list_with_selling_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O122"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Price 1</t>
+          <t>Selling price</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 140W</t>
+          <t>AVANCIS POWERMAX SKALA 130W Green 4002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -535,24 +535,28 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Frameless Full Green (4002)</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>686</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>1 595</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -563,7 +567,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.229</t>
+          <t>2.400</t>
         </is>
       </c>
     </row>
@@ -575,34 +579,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JAM72D40-580-MB</t>
+          <t>LR5-66HTH-530M</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>218</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>530</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -612,27 +616,27 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>2 094</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>682</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.150</t>
+          <t>0.192</t>
         </is>
       </c>
     </row>
@@ -644,34 +648,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JAM72D40-575-MB</t>
+          <t>LR5-66HTH-525W</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>590</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>525</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -681,27 +685,27 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>2 094</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>682</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.150</t>
+          <t>0.156</t>
         </is>
       </c>
     </row>
@@ -713,24 +717,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JAM72D30-550-MB-SF</t>
+          <t>LR5-66HPH-505M</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>505</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -740,17 +744,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2 117</t>
+          <t>2 094</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -765,12 +769,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>682</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.158</t>
+          <t>0.248</t>
         </is>
       </c>
     </row>
@@ -782,72 +786,64 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JAM72D30-545-MB-SF</t>
+          <t>LR5-54HTH-440M</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6 330</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>04/2024</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2 117</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>936</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.146</t>
+          <t>0.156</t>
         </is>
       </c>
     </row>
@@ -859,64 +855,64 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JAM72D30-540-MB-SF</t>
+          <t>LR5-54HTH-420M</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>420</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2 117</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>936</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.258</t>
         </is>
       </c>
     </row>
@@ -928,32 +924,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JAM66S30-505-MR BF</t>
+          <t>LR5-54HPH-415M</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4 535</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>05/2024</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>415</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -973,7 +961,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2 093</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -988,12 +976,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>936</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.136</t>
+          <t>0.228</t>
         </is>
       </c>
     </row>
@@ -1005,29 +993,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>JAM60S20-385-MR-BF [NEW]</t>
+          <t>LR5-72HBD-550M</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>209</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>550</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1037,12 +1025,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1 769</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1052,17 +1040,17 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>720</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.156</t>
+          <t>0.141</t>
         </is>
       </c>
     </row>
@@ -1074,32 +1062,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>JAM60S20-385-MR-BF</t>
+          <t>LR5-54HIH-410M</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>05/2024</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>410</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1114,32 +1094,32 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1 769</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>936</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.156</t>
+          <t>0.272</t>
         </is>
       </c>
     </row>
@@ -1156,24 +1136,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>JAM54S31-410-MR-ALLBLACK</t>
+          <t>JAM78S30-585/MR</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>585</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1188,27 +1168,27 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>2 465</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>496</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.138</t>
+          <t>0.147</t>
         </is>
       </c>
     </row>
@@ -1225,24 +1205,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>JAM54S31-405-MR-ALLBLACK</t>
+          <t>JAM72S30-545/MR</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>272</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>545</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1257,7 +1237,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>2 279</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1267,17 +1247,17 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>620</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.144</t>
+          <t>0.157</t>
         </is>
       </c>
     </row>
@@ -1294,24 +1274,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>JAM54S30-425-LR-BF</t>
+          <t>JAM72S30-545-MR-SF 35MM</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>545</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1326,27 +1306,23 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>2 279</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.138</t>
         </is>
       </c>
     </row>
@@ -1363,24 +1339,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>JAM54S30-420-GR-BF</t>
+          <t>JAM72S20-465-MR-SF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>465</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1390,32 +1366,32 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>2 112</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>35</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>682</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.138</t>
         </is>
       </c>
     </row>
@@ -1501,29 +1477,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JAM54S30-415-MR-BF</t>
+          <t>JAM72D40-580-MB</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>580</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1533,7 +1509,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1548,12 +1524,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>720</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.150</t>
         </is>
       </c>
     </row>
@@ -1565,24 +1541,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>JINKO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>JAM54S30-410-MR-SF</t>
+          <t>JINKO Tiger Neo 72HL4-(V) 575W</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>575</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1602,27 +1578,27 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>620</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.138</t>
+          <t>0.172</t>
         </is>
       </c>
     </row>
@@ -1639,29 +1615,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>JAM54S30-405-MR-BF</t>
+          <t>JAM72D40-575-MB</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>575</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1671,7 +1647,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1686,12 +1662,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>720</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.144</t>
+          <t>0.150</t>
         </is>
       </c>
     </row>
@@ -1703,12 +1679,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>JAM54D40-445-LB-BF</t>
+          <t>LR5-72HTH-570M</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1716,59 +1692,51 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>04/2024</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>570</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>620</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.152</t>
+          <t>0.148</t>
         </is>
       </c>
     </row>
@@ -1780,64 +1748,64 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>SUNMAN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>JAM54D40-425-GB-BF</t>
+          <t>SUNMAN_SMF430F</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>168</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>430</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Flexible</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 080</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>2 054</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>66</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 320</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.156</t>
+          <t>0.372</t>
         </is>
       </c>
     </row>
@@ -1849,64 +1817,64 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>JAM54D40-420-MB-BF</t>
+          <t>TRINA_TSM-550DE19</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>550</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 096</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>2 384</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>620</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.144</t>
+          <t>0.353</t>
         </is>
       </c>
     </row>
@@ -1918,64 +1886,72 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CS7N-665MS</t>
+          <t>TRINA_NEG9RC.27 n type 435 I-Topcon Bifacial DualG</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1 798</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+          <t>2 304</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>05/2024</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1 303</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2 384</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>936</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.218</t>
+          <t>0.172</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1963,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS7L-595MS</t>
+          <t>TRINA_NEG9R.28_435W_DUALGLASS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2004,47 +1980,47 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1 303</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2 172</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>936</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.144</t>
+          <t>0.198</t>
         </is>
       </c>
     </row>
@@ -2056,24 +2032,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS6R-415 BF</t>
+          <t>TRINA_NEG9R.28_430W_DUALGLASS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>430</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2083,7 +2059,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2093,7 +2069,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2103,17 +2079,17 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>936</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.168</t>
+          <t>0.288</t>
         </is>
       </c>
     </row>
@@ -2125,34 +2101,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS6R-410 SF</t>
+          <t>TRINA_NEG9R.28 n type 445 I-Topcon DualGlass</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+          <t>5 442</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5/2024</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>445</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2162,7 +2146,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2172,17 +2156,17 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>936</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.341</t>
+          <t>0.164</t>
         </is>
       </c>
     </row>
@@ -2194,24 +2178,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS6L-455MS_BF</t>
+          <t>TRINA_DEG09R.08_420W_DUALGLASS</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>420</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2221,7 +2205,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2231,7 +2215,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1 903</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2241,17 +2225,17 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>936</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.143</t>
+          <t>0.295</t>
         </is>
       </c>
     </row>
@@ -2263,56 +2247,72 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA G002 130W Grey</t>
+          <t>LR5-72HTH-575M</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3/2024</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>575</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Frameless Full Grey (G002)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2.400</t>
+          <t>0.156</t>
         </is>
       </c>
     </row>
@@ -2324,52 +2324,64 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA B001 140W Black</t>
+          <t>TRINA_DE09R.08_430W</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2.229</t>
+          <t>0.235</t>
         </is>
       </c>
     </row>
@@ -2381,17 +2393,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JAM54S30-415-GR-BF</t>
+          <t>TRINA_DE09R.08W_415W</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>93</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2418,7 +2430,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2438,7 +2450,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.138</t>
+          <t>0.266</t>
         </is>
       </c>
     </row>
@@ -2450,29 +2462,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>JAM72S20-465-MR-SF</t>
+          <t>TRINA_DE09R.05_415W_Full black</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>864</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>415</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2482,32 +2494,32 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2 112</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>936</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.138</t>
+          <t>0.131</t>
         </is>
       </c>
     </row>
@@ -2519,29 +2531,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TONGWEI</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>JAM72S30-545-MR-SF 35MM</t>
+          <t>TW-410W MAP-108-H-S BF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>612</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>410</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2556,23 +2568,27 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2 279</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.138</t>
+          <t>0.198</t>
         </is>
       </c>
     </row>
@@ -2584,29 +2600,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TONGWEI</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JAM72S30-545/MR</t>
+          <t>TW-400W- MAP-108-H-FULL BLACK</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>400</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2621,7 +2637,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2 279</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2631,17 +2647,17 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>936</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.157</t>
+          <t>0.264</t>
         </is>
       </c>
     </row>
@@ -2653,24 +2669,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>SUNPORT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TRINA_TSM-550DE19</t>
+          <t>SUNPORT SPP380QHES</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>380</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2680,37 +2696,37 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Flexible</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1 096</t>
+          <t>1 040</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2 384</t>
+          <t>1 840</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2.500</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>46</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>1 104</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.353</t>
+          <t>0.480</t>
         </is>
       </c>
     </row>
@@ -2722,72 +2738,64 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>SUNPORT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TRINA_NEG9RC.27 n type 435 I-Topcon Bifacial DualG</t>
+          <t>SUNPORT SPP375QHES-B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2 304</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>05/2024</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>375</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Flexible</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 040</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>1 840</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2.500</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>46</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 104</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.172</t>
+          <t>0.492</t>
         </is>
       </c>
     </row>
@@ -2804,19 +2812,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28_435W_DUALGLASS</t>
+          <t>TRINA_DE09R.08_425W</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>425</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2826,7 +2834,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2856,7 +2864,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.198</t>
+          <t>0.134</t>
         </is>
       </c>
     </row>
@@ -2873,59 +2881,59 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28_430W_DUALGLASS</t>
+          <t>TRINA_TSM-555DE19</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>555</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 096</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 384</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>620</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.288</t>
+          <t>0.352</t>
         </is>
       </c>
     </row>
@@ -2937,37 +2945,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28 n type 445 I-Topcon DualGlass</t>
+          <t>JAM72D30-550-MB-SF</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5 442</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>5/2024</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>550</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 117</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>720</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.164</t>
+          <t>0.158</t>
         </is>
       </c>
     </row>
@@ -3014,29 +3014,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TRINA_DEG09R.08_420W_DUALGLASS</t>
+          <t>JAM72D30-540-MB-SF</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>540</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3046,32 +3046,32 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 117</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>620</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>0.132</t>
         </is>
       </c>
     </row>
@@ -3083,24 +3083,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TRINA_DE09R.08_430W</t>
+          <t>CS6L-455MS_BF</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>588</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>455</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>1 903</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3130,17 +3130,17 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>840</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.235</t>
+          <t>0.143</t>
         </is>
       </c>
     </row>
@@ -3152,64 +3152,56 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TRINA_DE09R.08_425W</t>
+          <t>AVANCIS SKALA G002 130W Grey</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>Frameless Full Grey (G002)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>2.400</t>
         </is>
       </c>
     </row>
@@ -3221,64 +3213,52 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TRINA_DE09R.08W_415W</t>
+          <t>AVANCIS SKALA B001 140W Black</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>415</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.266</t>
+          <t>2.229</t>
         </is>
       </c>
     </row>
@@ -3290,64 +3270,56 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TRINA_DE09R.05_415W_Full black</t>
+          <t>AVANCIS SKALA 70W G001</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Full Black</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>Frameless Full Anthracite (G001)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.131</t>
+          <t>276</t>
         </is>
       </c>
     </row>
@@ -3359,64 +3331,52 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TONGWEI</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TW-410W MAP-108-H-S BF</t>
+          <t>AVANCIS SKALA 140W</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.198</t>
+          <t>2.229</t>
         </is>
       </c>
     </row>
@@ -3428,64 +3388,56 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TONGWEI</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TW-400W- MAP-108-H-FULL BLACK</t>
+          <t>AVANCIS SKALA 135W G001 Anthracite</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Full Black</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>Frameless Full Dark blue (7002)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.264</t>
+          <t>2.311</t>
         </is>
       </c>
     </row>
@@ -3497,24 +3449,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SUNPORT</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SUNPORT SPP380QHES</t>
+          <t>CS6R-410 SF</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>410</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3524,37 +3476,37 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Flexible</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1 040</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1 840</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>1 104</t>
+          <t>910</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.480</t>
+          <t>0.341</t>
         </is>
       </c>
     </row>
@@ -3566,64 +3518,56 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SUNPORT</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SUNPORT SPP375QHES-B</t>
+          <t>AVANCIS SKALA 135W 7002 Dark Blue</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Full Black</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Flexible</t>
-        </is>
-      </c>
+          <t>Frameless Full Dark blue (7002)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1 040</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1 840</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>1 104</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0.492</t>
+          <t>2.311</t>
         </is>
       </c>
     </row>
@@ -3635,64 +3579,52 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SUNMAN</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SUNMAN_SMF430F</t>
+          <t>AVANCIS SKALA 130W</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>430</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Flexible</t>
-        </is>
-      </c>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1 080</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2 054</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>1 320</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0.372</t>
+          <t>2.400</t>
         </is>
       </c>
     </row>
@@ -3704,72 +3636,52 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LR5-72HTH-575M</t>
+          <t>AVANCIS SKALA 125W</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>837</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>3/2024</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>575</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0.156</t>
+          <t>2.496</t>
         </is>
       </c>
     </row>
@@ -3781,64 +3693,56 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LR5-72HTH-570M</t>
+          <t>AVANCIS SKALA 120W 3002 Gold</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>Frameless Full Gold (3002)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0.148</t>
+          <t>2.600</t>
         </is>
       </c>
     </row>
@@ -3850,64 +3754,52 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LR5-72HBD-550M</t>
+          <t>AVANCIS SKALA 115W</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>720</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0.141</t>
+          <t>2.713</t>
         </is>
       </c>
     </row>
@@ -3919,64 +3811,52 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LR5-66HTH-530M</t>
+          <t>AVANCIS SKALA 100W 1202 RED</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>530</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2 094</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>682</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0.192</t>
+          <t>3.120</t>
         </is>
       </c>
     </row>
@@ -3988,64 +3868,52 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LR5-66HTH-525W</t>
+          <t>AVANCIS POWERMAX SKALA 150W B901</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>686</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2 094</t>
+          <t>1 595</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>682</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.156</t>
+          <t>2.080</t>
         </is>
       </c>
     </row>
@@ -4057,64 +3925,52 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LR5-66HPH-505M</t>
+          <t>AVANCIS SKALA 130W B</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>505</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2 094</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>682</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>0.248</t>
+          <t>2.400</t>
         </is>
       </c>
     </row>
@@ -4126,64 +3982,72 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LR5-54HTH-440M</t>
+          <t>JAM72D30-545-MB-SF</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+          <t>6 330</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>04/2024</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>545</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>2 117</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>620</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>0.156</t>
+          <t>0.146</t>
         </is>
       </c>
     </row>
@@ -4195,24 +4059,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>LR5-54HTH-420M</t>
+          <t>CS6R-415 BF</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>415</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4242,17 +4106,17 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>910</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>0.258</t>
+          <t>0.168</t>
         </is>
       </c>
     </row>
@@ -4264,29 +4128,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LR5-54HPH-415M</t>
+          <t>CS7N-665MS</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>1 798</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>665</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4296,32 +4160,32 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 303</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>2 384</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>558</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0.228</t>
+          <t>0.218</t>
         </is>
       </c>
     </row>
@@ -4333,24 +4197,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>LR5-54HIH-410M</t>
+          <t>JAM66S30-505-MR BF</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+          <t>4 535</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>05/2024</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>505</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4370,7 +4242,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>2 093</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4385,12 +4257,12 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>792</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0.272</t>
+          <t>0.136</t>
         </is>
       </c>
     </row>
@@ -4402,29 +4274,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>JINKO Tiger Neo 72HL4-(V) 575W</t>
+          <t>JAM60S20-385-MR-BF [NEW]</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>299</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>385</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4434,17 +4306,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>1 769</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4454,12 +4326,12 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>806</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>0.172</t>
+          <t>0.156</t>
         </is>
       </c>
     </row>
@@ -4476,24 +4348,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>JAM78S30-585/MR</t>
+          <t>JAM60S20-385-MR-BF</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>05/2024</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>385</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4503,12 +4383,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2 465</t>
+          <t>1 769</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4523,12 +4403,12 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>806</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>0.147</t>
+          <t>0.156</t>
         </is>
       </c>
     </row>
@@ -4540,56 +4420,64 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 70W G001</t>
+          <t>JAM54S31-410-MR-ALLBLACK</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>218</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>410</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Frameless Full Anthracite (G001)</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>0.138</t>
         </is>
       </c>
     </row>
@@ -4601,29 +4489,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>TRINA_TSM-555DE19</t>
+          <t>JAM54S31-405-MR-ALLBLACK</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>405</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4633,32 +4521,32 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>1 096</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2 384</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>936</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0.352</t>
+          <t>0.144</t>
         </is>
       </c>
     </row>
@@ -4670,24 +4558,24 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TRINA_TSM-650_DEG21C.20</t>
+          <t>JAM54S30-425-LR-BF</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>425</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4697,37 +4585,37 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1 303</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2 384</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>936</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>0.193</t>
+          <t>0.132</t>
         </is>
       </c>
     </row>
@@ -4739,56 +4627,64 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 135W 7002 Dark Blue</t>
+          <t>CS7L-595MS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>595</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Frameless Full Dark blue (7002)</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 303</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>2 172</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2.311</t>
+          <t>0.144</t>
         </is>
       </c>
     </row>
@@ -4800,52 +4696,64 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 130W B</t>
+          <t>JAM54S30-420-GR-BF</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2.400</t>
+          <t>0.132</t>
         </is>
       </c>
     </row>
@@ -4857,52 +4765,64 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 130W</t>
+          <t>JAM54S30-415-GR-BF</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2.400</t>
+          <t>0.138</t>
         </is>
       </c>
     </row>
@@ -4914,52 +4834,64 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 125W</t>
+          <t>JAM54S30-410-MR-SF</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2.496</t>
+          <t>0.138</t>
         </is>
       </c>
     </row>
@@ -4971,56 +4903,64 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 120W 3002 Gold</t>
+          <t>JAM54S30-405-MR-BF</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>405</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Frameless Full Gold (3002)</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2.600</t>
+          <t>0.144</t>
         </is>
       </c>
     </row>
@@ -5032,52 +4972,72 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 115W</t>
+          <t>JAM54D40-445-LB-BF</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>04/2024</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2.713</t>
+          <t>0.152</t>
         </is>
       </c>
     </row>
@@ -5089,52 +5049,64 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 100W 1202 RED</t>
+          <t>JAM54D40-425-GB-BF</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>3.120</t>
+          <t>0.156</t>
         </is>
       </c>
     </row>
@@ -5146,52 +5118,64 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>AVANCIS POWERMAX SKALA 150W B901</t>
+          <t>JAM54D40-420-MB-BF</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>132</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>1 595</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2.080</t>
+          <t>0.144</t>
         </is>
       </c>
     </row>
@@ -5203,56 +5187,64 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>AVANCIS POWERMAX SKALA 130W Green 4002</t>
+          <t>JAM54S30-415-MR-BF</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>415</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Frameless Full Green (4002)</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>1 595</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2.400</t>
+          <t>0.132</t>
         </is>
       </c>
     </row>
@@ -5264,2506 +5256,64 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 135W G001 Anthracite</t>
+          <t>TRINA_TSM-650_DEG21C.20</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>650</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Frameless Full Dark blue (7002)</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1 303</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>2 384</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>33</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2.311</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>SUN2000-6KTL-L1</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>937</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>SUN2000-6KTL-M1</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>146.500</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>1 141</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>SUN2000-8KTL-M1</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>146.500</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>1 342</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>SUN2000L-2KTL-L1</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>522</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>SOLAX</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>X3-HYBRID-10KW</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>503</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>503</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>1 997</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>SOFAR</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>SOFAR 50KTLX-G3</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>2 040</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>SOFAR</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>SOFAR 50KTLX-G3 X2 + AC BOX</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>4 477</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>SUN2000-5KTL-M1</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>146.500</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>1 012</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>SERMATEC</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Sermatec 10kW Three phase hybrid inverter - SMT-10</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>548</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>1 188</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>SUN2000-5KTL-L1</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>818</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>SUN2000-33KTL</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>283</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>1 922</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>SUN2000-4KTL-M1</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>146.500</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>959</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>SUN2000-40KTL-M3</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>530</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>640</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>2 485</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>SUN2000-3KTL-L1</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>618</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>SOLINTEG</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>MHT-10K-25</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>418</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>534</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>1 300</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>SUN2000-25KTL-M5</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>2 002</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>SUN2000-17KTL-M2</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>1 916</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>SUN2000-15KTL-M5</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>460</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>546</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>1 590</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>SUN2000-12KTL-M5</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>460</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>546</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>1 590</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>SUN2000-10KTL-M1</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>1 507</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>SUN2000-100KTL-M2</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>1 035</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>4 121</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Dummy SUN2000-10KTL-M1 HUAWEI</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>SUN2000-50KTL-M3</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>530</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>640</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>2 648</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>SOLINTEG</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>MHT-15K-40</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>418</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>534</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>1 859</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>SG10.0RT-V115</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>643</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>962</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>SOLINTEG</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>MHT-25K-100</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>4 036</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>SH8.0RT</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>1 634</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>SH6.0RT</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>1 567</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>SH5.0RT</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>1 490</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>SH25T-V11</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>3 212</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>SH20T-V11</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>2 982</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>SH15T-V11</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>2 690</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>SH10RT</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>1 822</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>SG8.0RT-V115</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>969</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>828</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>SG6KTL-MT</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>485</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>1 160</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>SG6.0RT-V115</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>371</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>816</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>SOLINTEG</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>MHT-20K-40, with LAN</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>418</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>534</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>2 080</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>SG50CX-P2- V12_S</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>645</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>782</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>2 326</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>SG40CX-V112</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>645</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>782</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>2 131</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>SG350HX-V115</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>870</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>1 136</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>361</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>8 363</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>SG250HX</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>660</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>1 051</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>363</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>6 480</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>SG17.0RT-V115</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>1 216</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>SG17.0RT-V11</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>1 216</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>SG15.0RT-V115</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>427</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>1 198</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>SG12KTL-M</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>485</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>1 218</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>SG12.0RT-V115</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>998</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>SOLINTEG</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>MHT-50K-100</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>4 818</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>SOLINTEG</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>MHT-40K-100</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>4 198</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>SUNGROW</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>SG5.0RT-V115_S</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>798</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Inverters</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>GOODWE</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>GW60KN-MT</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>788</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>586</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>3 420</t>
+          <t>0.193</t>
         </is>
       </c>
     </row>

--- a/static/generated_files/price_list_with_selling_prices.xlsx
+++ b/static/generated_files/price_list_with_selling_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,22 +513,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Batteries</t>
+          <t>Inverters</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BYD</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BYD_BATTERY_HVS</t>
+          <t>SG8.0RT-V115</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>957</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -536,36 +536,48 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>621</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Constructions</t>
+          <t>Inverters</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ANTAI</t>
+          <t>SUNGROW</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Antai_Tile Roof Hook 2 W30 H70</t>
+          <t>SG5.0RT-V115_S</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>326</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -573,14 +585,1190 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>598</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Inverters</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SUNGROW</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SG15.0RT-V115</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Inverters</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SUNGROW</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SG10.0RT-V115</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Inverters</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SERMATEC</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sermatec 10kW Three phase hybrid inverter - SMT-10</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Inverters</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SUNGROW</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SG6.0RT-V115</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Batteries</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SOLUNA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Soluna_S4_EU-A36</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1 230</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1 557.320</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Batteries</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SOLUNA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Soluna_10K_HV_LFP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>332.400</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>86.200</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>232.400</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1 990</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Batteries</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SOLUNA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SOLUNA_LIB_5KWH_BATT.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1 538.380</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Batteries</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SOFAR</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BTS_5K_BATTERY_MODULE_5,12</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1 538</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Batteries</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SOFAR</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>BTS 5K-BDU</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TIGO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Transmitter,Dual Core, Pure Signal RSS , Din  Rail</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>126.200</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>26.800</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>30.760</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TIGO</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Transmitter 120/240VAC PS, Outdoor Enclosure kit</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>126.200</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>26.800</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SERMATEC</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sermatec Parallel Box SMT-PB-10K</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TIGO</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TS4-A-2F,25A (Isc), 1400W Rapid shutdown</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3 431</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>139.700</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>138.400</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>22.900</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>32.420</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TIGO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TS4-A-2F, 20A (Isc), 1000W Rapid shutdown</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>139.700</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>138.400</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>22.900</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>30.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SOLUNA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Soluna Liberty Battery rack</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1 340</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1 023.620</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SOLUNA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Soluna HV PARRALLEL BOX</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>232.400</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>332.400</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>86.200</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SOLUNA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Soluna Battery Monitoring Wi-Fi Communication Stic</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SOLINTEG</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Solinteg RMK-MA 120 three phase smart meter</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SOLINTEG</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Solinteg RMK-5A Three phase smart meter</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SOLINTEG</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Solinteg LAN Module Integ R</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SOLINTEG</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DONGLE (WiFi2.0) SOLINTEG</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SOFAR</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>LTE Stick LS4G-3 (USB)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TIGO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Tigo Access Point (TAP)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>126.200</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>26.800</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>29.900</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TIGO</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Tigo CCA kit</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>278.400</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>125</t>
         </is>
       </c>
     </row>

--- a/static/generated_files/price_list_with_selling_prices.xlsx
+++ b/static/generated_files/price_list_with_selling_prices.xlsx
@@ -871,7 +871,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>108</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>334</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>266</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
